--- a/data/trans_orig/BARTHEL_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3223</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>831</v>
+        <v>794</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9885</v>
+        <v>8465</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05390699750579944</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01390315373052574</v>
+        <v>0.01327743294207183</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1653435526513939</v>
+        <v>0.1415949003112369</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6760</v>
+        <v>6552</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07305315033173214</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2275523852611387</v>
+        <v>0.2205486334346294</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -786,19 +786,19 @@
         <v>5393</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2166</v>
+        <v>1928</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11082</v>
+        <v>11966</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06026287392584576</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02420423817330699</v>
+        <v>0.02154230845800092</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1238330226547817</v>
+        <v>0.1337133166685381</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>56561</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49899</v>
+        <v>51319</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>58953</v>
+        <v>58990</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9460930024942006</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8346564473486049</v>
+        <v>0.8584050996887629</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9860968462694742</v>
+        <v>0.9867225670579282</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -836,7 +836,7 @@
         <v>27539</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22949</v>
+        <v>23157</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>29709</v>
@@ -845,7 +845,7 @@
         <v>0.9269468496682679</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7724476147388614</v>
+        <v>0.7794513665653705</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>84100</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>78411</v>
+        <v>77527</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>87327</v>
+        <v>87565</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9397371260741543</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8761669773452183</v>
+        <v>0.8662866833314615</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.975795761826693</v>
+        <v>0.9784576915419984</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4317</v>
+        <v>4618</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01610677617254181</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08492998340445838</v>
+        <v>0.09085876822101406</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -982,19 +982,19 @@
         <v>3248</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>943</v>
+        <v>907</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7480</v>
+        <v>7731</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2057277436256637</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05973466275274472</v>
+        <v>0.05747427314127206</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4738483354748477</v>
+        <v>0.489719208871193</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -1003,19 +1003,19 @@
         <v>4066</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>9435</v>
+        <v>9112</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06104068858364976</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0177972253244069</v>
+        <v>0.01767463349454221</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1416352834285453</v>
+        <v>0.1367784172595729</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>50011</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46513</v>
+        <v>46212</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>50830</v>
@@ -1041,7 +1041,7 @@
         <v>0.9838932238274581</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9150700165955413</v>
+        <v>0.9091412317789844</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>12538</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8306</v>
+        <v>8055</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14843</v>
+        <v>14879</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7942722563743363</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5261516645251522</v>
+        <v>0.5102807911288064</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9402653372472554</v>
+        <v>0.9425257268587279</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>62</v>
@@ -1074,19 +1074,19 @@
         <v>62550</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>57181</v>
+        <v>57504</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>65430</v>
+        <v>65439</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9389593114163503</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8583647165714549</v>
+        <v>0.8632215827404273</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9822027746755931</v>
+        <v>0.9823253665054578</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2546</v>
+        <v>2612</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11260</v>
+        <v>11732</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08524905747423792</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0354809310676168</v>
+        <v>0.03640591019575704</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1569280549485185</v>
+        <v>0.1634995742800911</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1199,19 +1199,19 @@
         <v>4473</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9884</v>
+        <v>9783</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1842574817176131</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04793427346823652</v>
+        <v>0.04781775055222755</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4071777241778796</v>
+        <v>0.4030036817705081</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -1220,19 +1220,19 @@
         <v>10590</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5536</v>
+        <v>5929</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18630</v>
+        <v>17945</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1102774137146416</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05764937308303789</v>
+        <v>0.06174279117660771</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1940011705107749</v>
+        <v>0.1868651214256858</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>65637</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60494</v>
+        <v>60022</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69208</v>
+        <v>69142</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9147509425257621</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8430719450514819</v>
+        <v>0.836500425719909</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9645190689323832</v>
+        <v>0.963594089804243</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -1270,19 +1270,19 @@
         <v>19802</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14391</v>
+        <v>14492</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23111</v>
+        <v>23114</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.815742518282387</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.59282227582212</v>
+        <v>0.596996318229492</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9520657265317635</v>
+        <v>0.9521822494477724</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>90</v>
@@ -1291,19 +1291,19 @@
         <v>85440</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>77400</v>
+        <v>78085</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>90494</v>
+        <v>90101</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8897225862853584</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.805998829489225</v>
+        <v>0.8131348785743142</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9423506269169621</v>
+        <v>0.9382572088233925</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>22402</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15050</v>
+        <v>14906</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>32155</v>
+        <v>32545</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.086137410135979</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05786966223821803</v>
+        <v>0.05731499893058971</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1236396527434625</v>
+        <v>0.1251399273343055</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1416,19 +1416,19 @@
         <v>7354</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3257</v>
+        <v>3194</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14402</v>
+        <v>14412</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08576191420743587</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03797955925498947</v>
+        <v>0.03725240051878445</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.167952118981035</v>
+        <v>0.1680659703536856</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -1437,19 +1437,19 @@
         <v>29756</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20759</v>
+        <v>21612</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40826</v>
+        <v>40819</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08604430049299377</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06002821858725167</v>
+        <v>0.06249516289382467</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1180535251602696</v>
+        <v>0.1180341006698458</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>237670</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>227917</v>
+        <v>227527</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>245022</v>
+        <v>245166</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.913862589864021</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8763603472565377</v>
+        <v>0.8748600726656954</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.942130337761782</v>
+        <v>0.9426850010694106</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -1487,19 +1487,19 @@
         <v>78398</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71350</v>
+        <v>71340</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82495</v>
+        <v>82558</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9142380857925642</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8320478810189644</v>
+        <v>0.8319340296463138</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9620204407450105</v>
+        <v>0.9627475994812156</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>334</v>
@@ -1508,19 +1508,19 @@
         <v>316068</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>304998</v>
+        <v>305005</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>325065</v>
+        <v>324212</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9139556995070063</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8819464748397303</v>
+        <v>0.8819658993301541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9399717814127484</v>
+        <v>0.9375048371061753</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>7340</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3555</v>
+        <v>3599</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13411</v>
+        <v>13282</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.132340117957607</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06409155539308427</v>
+        <v>0.06487949831314553</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2417905997369747</v>
+        <v>0.2394641813939463</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1633,19 +1633,19 @@
         <v>18448</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11520</v>
+        <v>10939</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>26839</v>
+        <v>27316</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1916651820955264</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.119692546051725</v>
+        <v>0.1136549641693151</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2788454906660877</v>
+        <v>0.2838013578844104</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -1654,19 +1654,19 @@
         <v>25788</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>17140</v>
+        <v>17174</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36036</v>
+        <v>36685</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1699766200699968</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1129759378829658</v>
+        <v>0.1131971936623145</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.237523774421674</v>
+        <v>0.241801457999599</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>48125</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42054</v>
+        <v>42183</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51910</v>
+        <v>51866</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.867659882042393</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7582094002630253</v>
+        <v>0.7605358186060537</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9359084446069158</v>
+        <v>0.9351205016868545</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>75</v>
@@ -1704,19 +1704,19 @@
         <v>77802</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>69411</v>
+        <v>68934</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>84730</v>
+        <v>85311</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8083348179044736</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.721154509333912</v>
+        <v>0.7161986421155896</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8803074539482749</v>
+        <v>0.886345035830685</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>126</v>
@@ -1725,19 +1725,19 @@
         <v>125927</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>115679</v>
+        <v>115030</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>134575</v>
+        <v>134541</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8300233799300032</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.762476225578326</v>
+        <v>0.7581985420004013</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8870240621170343</v>
+        <v>0.8868028063376856</v>
       </c>
     </row>
     <row r="18">
@@ -1842,19 +1842,19 @@
         <v>55402</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42497</v>
+        <v>41652</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70338</v>
+        <v>70601</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1303365263742888</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09997538552839431</v>
+        <v>0.0979880281018905</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1654747752530189</v>
+        <v>0.1660934306751294</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>50</v>
@@ -1863,19 +1863,19 @@
         <v>55402</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41896</v>
+        <v>42578</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>69619</v>
+        <v>72265</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1292283890669196</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09772531356310503</v>
+        <v>0.09931436847970898</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1623905757000838</v>
+        <v>0.1685621465216044</v>
       </c>
     </row>
     <row r="20">
@@ -1905,19 +1905,19 @@
         <v>369668</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>354732</v>
+        <v>354469</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>382573</v>
+        <v>383418</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8696634736257112</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8345252247469811</v>
+        <v>0.8339065693248706</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9000246144716056</v>
+        <v>0.9020119718981093</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>366</v>
@@ -1926,19 +1926,19 @@
         <v>373313</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>359096</v>
+        <v>356450</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>386819</v>
+        <v>386137</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8707716109330804</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8376094242999162</v>
+        <v>0.8314378534783956</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.902274686436895</v>
+        <v>0.900685631520291</v>
       </c>
     </row>
     <row r="21">
@@ -2030,19 +2030,19 @@
         <v>39901</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29341</v>
+        <v>30304</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53369</v>
+        <v>53159</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0795546461210087</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05850104808347024</v>
+        <v>0.06042028919384602</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1064080603523716</v>
+        <v>0.1059901358782502</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>83</v>
@@ -2051,19 +2051,19 @@
         <v>91095</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>73832</v>
+        <v>75498</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>111955</v>
+        <v>111199</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1345882867724461</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1090825589652583</v>
+        <v>0.1115440447089625</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1654076424618103</v>
+        <v>0.1642911756875978</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>126</v>
@@ -2072,19 +2072,19 @@
         <v>130996</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>111869</v>
+        <v>110613</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>152750</v>
+        <v>153564</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1111647136357855</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09493382138975867</v>
+        <v>0.09386791041011057</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1296260202688158</v>
+        <v>0.1303166297725948</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>461650</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>448182</v>
+        <v>448392</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>472210</v>
+        <v>471247</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9204453538789913</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8935919396476287</v>
+        <v>0.8940098641217499</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.94149895191653</v>
+        <v>0.939579710806154</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>578</v>
@@ -2122,19 +2122,19 @@
         <v>585747</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>564887</v>
+        <v>565643</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>603010</v>
+        <v>601344</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8654117132275538</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8345923575381898</v>
+        <v>0.8357088243124026</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8909174410347418</v>
+        <v>0.8884559552910377</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1057</v>
@@ -2143,19 +2143,19 @@
         <v>1047397</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1025643</v>
+        <v>1024829</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1066524</v>
+        <v>1067780</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8888352863642145</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8703739797311842</v>
+        <v>0.8696833702274053</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9050661786102413</v>
+        <v>0.9061320895898896</v>
       </c>
     </row>
     <row r="24">
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9593</v>
+        <v>10967</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07368547825506301</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.218439340273848</v>
+        <v>0.2497076677204092</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6927</v>
+        <v>6751</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08510507578415429</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2739155564908178</v>
+        <v>0.2669592222864466</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -2531,19 +2531,19 @@
         <v>5388</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12491</v>
+        <v>13414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07785835087181812</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01596494758999975</v>
+        <v>0.01622607589706109</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1804828890781519</v>
+        <v>0.1938293511614789</v>
       </c>
     </row>
     <row r="5">
@@ -2560,7 +2560,7 @@
         <v>40682</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34325</v>
+        <v>32951</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>43918</v>
@@ -2569,7 +2569,7 @@
         <v>0.926314521744937</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7815606597261521</v>
+        <v>0.7502923322795911</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2581,7 +2581,7 @@
         <v>23137</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18362</v>
+        <v>18538</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>25289</v>
@@ -2590,7 +2590,7 @@
         <v>0.9148949242158457</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.726084443509182</v>
+        <v>0.7330407777135534</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2602,19 +2602,19 @@
         <v>63819</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>56716</v>
+        <v>55793</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>68102</v>
+        <v>68084</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9221416491281819</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8195171109218483</v>
+        <v>0.8061706488385214</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9840350524100002</v>
+        <v>0.983773924102939</v>
       </c>
     </row>
     <row r="6">
@@ -2706,19 +2706,19 @@
         <v>5550</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1869</v>
+        <v>1241</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13539</v>
+        <v>14297</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09153545800424233</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03083075894237373</v>
+        <v>0.02047189774886185</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2233019497894102</v>
+        <v>0.235801625869182</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2727,19 +2727,19 @@
         <v>3322</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1029</v>
+        <v>1006</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7998</v>
+        <v>8018</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.175742536619114</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05443588717785641</v>
+        <v>0.05321299034797921</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.423140986878874</v>
+        <v>0.42417741521703</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -2748,19 +2748,19 @@
         <v>8872</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3506</v>
+        <v>4146</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17891</v>
+        <v>17962</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1115482853590552</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04408797680079465</v>
+        <v>0.05212729399784147</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2249507678201123</v>
+        <v>0.22584276630201</v>
       </c>
     </row>
     <row r="8">
@@ -2777,19 +2777,19 @@
         <v>55080</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47091</v>
+        <v>46333</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>58761</v>
+        <v>59389</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9084645419957577</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7766980502105898</v>
+        <v>0.764198374130818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9691692410576322</v>
+        <v>0.979528102251138</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -2798,19 +2798,19 @@
         <v>15580</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10904</v>
+        <v>10884</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17873</v>
+        <v>17896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.824257463380886</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5768590131211264</v>
+        <v>0.5758225847829701</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9455641128221436</v>
+        <v>0.9467870096520208</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>61</v>
@@ -2819,19 +2819,19 @@
         <v>70659</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>61640</v>
+        <v>61569</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>76025</v>
+        <v>75385</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8884517146409449</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7750492321798879</v>
+        <v>0.7741572336979898</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9559120231992053</v>
+        <v>0.9478727060021584</v>
       </c>
     </row>
     <row r="9">
@@ -2923,19 +2923,19 @@
         <v>10318</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5142</v>
+        <v>5246</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18887</v>
+        <v>19154</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08695991430939086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0433399046876201</v>
+        <v>0.0442150346554161</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1591814240420205</v>
+        <v>0.1614303269941293</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -2944,19 +2944,19 @@
         <v>11580</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6271</v>
+        <v>6305</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18155</v>
+        <v>19110</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2120260885750543</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1148174582704201</v>
+        <v>0.1154391792900558</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3324140085215712</v>
+        <v>0.3499000075362579</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -2965,19 +2965,19 @@
         <v>21898</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14247</v>
+        <v>14328</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>32631</v>
+        <v>33084</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.126381098467636</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08222253985519321</v>
+        <v>0.08269410491456654</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1883273417874953</v>
+        <v>0.1909410725607963</v>
       </c>
     </row>
     <row r="11">
@@ -2994,19 +2994,19 @@
         <v>108335</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99766</v>
+        <v>99499</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113511</v>
+        <v>113407</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9130400856906091</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8408185759579795</v>
+        <v>0.83856967300587</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9566600953123799</v>
+        <v>0.9557849653445837</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -3015,19 +3015,19 @@
         <v>43035</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36460</v>
+        <v>35505</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48344</v>
+        <v>48310</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7879739114249457</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6675859914784289</v>
+        <v>0.6500999924637423</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.88518254172958</v>
+        <v>0.8845608207099442</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>134</v>
@@ -3036,19 +3036,19 @@
         <v>151370</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>140637</v>
+        <v>140184</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>159021</v>
+        <v>158940</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.873618901532364</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8116726582125048</v>
+        <v>0.8090589274392037</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9177774601448069</v>
+        <v>0.9173058950854335</v>
       </c>
     </row>
     <row r="12">
@@ -3140,19 +3140,19 @@
         <v>48499</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>36363</v>
+        <v>36067</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63125</v>
+        <v>64097</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.209269435021316</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1569048604311171</v>
+        <v>0.1556255440198384</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.272379235437293</v>
+        <v>0.2765759711141215</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -3161,19 +3161,19 @@
         <v>13984</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7989</v>
+        <v>7661</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20897</v>
+        <v>20965</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2326991947970089</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1329366195792659</v>
+        <v>0.1274814159558748</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3477392843933944</v>
+        <v>0.3488611142102295</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -3182,19 +3182,19 @@
         <v>62483</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>48655</v>
+        <v>48958</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>78813</v>
+        <v>77782</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.214093919909203</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1667118238445099</v>
+        <v>0.1677519964120255</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2700491527104215</v>
+        <v>0.2665170045859588</v>
       </c>
     </row>
     <row r="14">
@@ -3211,19 +3211,19 @@
         <v>183254</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>168628</v>
+        <v>167656</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>195390</v>
+        <v>195686</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7907305649786841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.727620764562707</v>
+        <v>0.7234240288858786</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8430951395688829</v>
+        <v>0.8443744559801616</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -3232,19 +3232,19 @@
         <v>46111</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39198</v>
+        <v>39130</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52106</v>
+        <v>52434</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.767300805202991</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6522607156066058</v>
+        <v>0.6511388857897704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8670633804207346</v>
+        <v>0.8725185840441252</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>217</v>
@@ -3253,19 +3253,19 @@
         <v>229365</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>213035</v>
+        <v>214066</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>243193</v>
+        <v>242890</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.785906080090797</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7299508472895785</v>
+        <v>0.7334829954140413</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.83328817615549</v>
+        <v>0.8322480035879746</v>
       </c>
     </row>
     <row r="15">
@@ -3357,19 +3357,19 @@
         <v>15932</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9549</v>
+        <v>9519</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23715</v>
+        <v>24721</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1551410023179565</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09298130248465411</v>
+        <v>0.09269030529312838</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2309289790647473</v>
+        <v>0.2407229420739421</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -3378,19 +3378,19 @@
         <v>64088</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50878</v>
+        <v>51013</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>77369</v>
+        <v>78328</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3401699325906737</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2700557306152284</v>
+        <v>0.2707702249234295</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4106637962603732</v>
+        <v>0.4157526730398629</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>74</v>
@@ -3399,19 +3399,19 @@
         <v>80020</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>64786</v>
+        <v>65075</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96245</v>
+        <v>97362</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2748936060832722</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2225593819897456</v>
+        <v>0.2235532661018279</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3306290656266757</v>
+        <v>0.3344665305353556</v>
       </c>
     </row>
     <row r="17">
@@ -3428,19 +3428,19 @@
         <v>86764</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>78981</v>
+        <v>77975</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>93147</v>
+        <v>93177</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8448589976820435</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7690710209352528</v>
+        <v>0.759277057926058</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9070186975153459</v>
+        <v>0.9073096947068716</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -3449,19 +3449,19 @@
         <v>124312</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>111031</v>
+        <v>110072</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137522</v>
+        <v>137387</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6598300674093263</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5893362037396267</v>
+        <v>0.5842473269601369</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7299442693847717</v>
+        <v>0.7292297750765704</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>199</v>
@@ -3470,19 +3470,19 @@
         <v>211076</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>194851</v>
+        <v>193734</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>226310</v>
+        <v>226021</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7251063939167277</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6693709343733244</v>
+        <v>0.6655334694646442</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7774406180102543</v>
+        <v>0.7764467338981721</v>
       </c>
     </row>
     <row r="18">
@@ -3587,19 +3587,19 @@
         <v>96354</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79284</v>
+        <v>80658</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>113692</v>
+        <v>115643</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.244116694369191</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2008705302997102</v>
+        <v>0.2043513030768274</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2880429579159391</v>
+        <v>0.2929855521511333</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>87</v>
@@ -3608,19 +3608,19 @@
         <v>96354</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>81691</v>
+        <v>80583</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116030</v>
+        <v>116028</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2428934865789566</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2059308772900406</v>
+        <v>0.2031381900508458</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2924934371983559</v>
+        <v>0.292488036907686</v>
       </c>
     </row>
     <row r="20">
@@ -3650,19 +3650,19 @@
         <v>298350</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>281012</v>
+        <v>279061</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>315420</v>
+        <v>314046</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.755883305630809</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7119570420840609</v>
+        <v>0.7070144478488669</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7991294697002898</v>
+        <v>0.7956486969231726</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>283</v>
@@ -3671,19 +3671,19 @@
         <v>300338</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>280662</v>
+        <v>280664</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>315001</v>
+        <v>316109</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7571065134210434</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7075065628016441</v>
+        <v>0.7075119630923136</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7940691227099592</v>
+        <v>0.7968618099491538</v>
       </c>
     </row>
     <row r="21">
@@ -3775,19 +3775,19 @@
         <v>83535</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66858</v>
+        <v>67035</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>102727</v>
+        <v>102984</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1492664998936019</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1194661974566731</v>
+        <v>0.1197834281617317</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1835594003343589</v>
+        <v>0.1840200374816254</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>175</v>
@@ -3796,19 +3796,19 @@
         <v>191480</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>165455</v>
+        <v>165839</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>217361</v>
+        <v>217038</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2580574112038447</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2229840244249458</v>
+        <v>0.2235006051404483</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2929376693081154</v>
+        <v>0.2925024090860694</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>247</v>
@@ -3817,19 +3817,19 @@
         <v>275015</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>244162</v>
+        <v>245775</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>306342</v>
+        <v>308054</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2112830889369968</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1875798367822574</v>
+        <v>0.1888192083126789</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2353504331479719</v>
+        <v>0.2366657044464279</v>
       </c>
     </row>
     <row r="23">
@@ -3846,19 +3846,19 @@
         <v>476102</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>456910</v>
+        <v>456653</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>492779</v>
+        <v>492602</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8507335001063981</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8164405996656411</v>
+        <v>0.8159799625183749</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8805338025433268</v>
+        <v>0.8802165718382683</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>518</v>
@@ -3867,19 +3867,19 @@
         <v>550525</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>524644</v>
+        <v>524967</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>576550</v>
+        <v>576166</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7419425887961553</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7070623306918848</v>
+        <v>0.7074975909139292</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7770159755750543</v>
+        <v>0.7764993948595514</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>950</v>
@@ -3888,19 +3888,19 @@
         <v>1026627</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>995300</v>
+        <v>993588</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1057480</v>
+        <v>1055867</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7887169110630031</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7646495668520282</v>
+        <v>0.763334295553572</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8124201632177427</v>
+        <v>0.8111807916873212</v>
       </c>
     </row>
     <row r="24">
@@ -4234,19 +4234,19 @@
         <v>3182</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8299</v>
+        <v>9210</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04634868819515233</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01080859992663492</v>
+        <v>0.01093527523283328</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1208923639022593</v>
+        <v>0.1341684255646858</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8086</v>
+        <v>8504</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07011929036884566</v>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2192071869202061</v>
+        <v>0.2305491183259108</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4276,19 +4276,19 @@
         <v>5768</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2046</v>
+        <v>1991</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13912</v>
+        <v>13127</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05465735186989121</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0193856818355203</v>
+        <v>0.01886807641921798</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1318228430946504</v>
+        <v>0.1243820007345519</v>
       </c>
     </row>
     <row r="5">
@@ -4305,19 +4305,19 @@
         <v>65465</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60348</v>
+        <v>59437</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67905</v>
+        <v>67896</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9536513118048476</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8791076360977407</v>
+        <v>0.8658315744353114</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.989191400073365</v>
+        <v>0.9890647247671667</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>27</v>
@@ -4326,7 +4326,7 @@
         <v>34301</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>28802</v>
+        <v>28384</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>36888</v>
@@ -4335,7 +4335,7 @@
         <v>0.9298807096311543</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7807928130797939</v>
+        <v>0.7694508816740893</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4347,19 +4347,19 @@
         <v>99767</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>91623</v>
+        <v>92408</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>103489</v>
+        <v>103544</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9453426481301088</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.86817715690535</v>
+        <v>0.8756179992654494</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9806143181644797</v>
+        <v>0.9811319235807821</v>
       </c>
     </row>
     <row r="6">
@@ -4451,19 +4451,19 @@
         <v>7238</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3289</v>
+        <v>3498</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12593</v>
+        <v>12914</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1356857268654978</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0616568677457368</v>
+        <v>0.06556741165873416</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2360741050547434</v>
+        <v>0.2420899240068955</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -4472,19 +4472,19 @@
         <v>4745</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1330</v>
+        <v>1342</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10430</v>
+        <v>10075</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2697937476010174</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07564671401827422</v>
+        <v>0.07631627142217731</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5930019632234514</v>
+        <v>0.5728447858337103</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -4493,19 +4493,19 @@
         <v>11983</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6041</v>
+        <v>6414</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20480</v>
+        <v>20010</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1689388501524723</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08516387335894274</v>
+        <v>0.09042831052273918</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2887309486958019</v>
+        <v>0.2821004531259383</v>
       </c>
     </row>
     <row r="8">
@@ -4522,19 +4522,19 @@
         <v>46106</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40751</v>
+        <v>40430</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>50055</v>
+        <v>49846</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8643142731345022</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.763925894945257</v>
+        <v>0.7579100759931047</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9383431322542634</v>
+        <v>0.9344325883412659</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -4543,19 +4543,19 @@
         <v>12843</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7158</v>
+        <v>7513</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16258</v>
+        <v>16246</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7302062523989826</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4069980367765492</v>
+        <v>0.4271552141662897</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9243532859817257</v>
+        <v>0.9236837285778227</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>58</v>
@@ -4564,19 +4564,19 @@
         <v>58949</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>50452</v>
+        <v>50922</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>64891</v>
+        <v>64518</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8310611498475278</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7112690513041983</v>
+        <v>0.7178995468740603</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9148361266410573</v>
+        <v>0.9095716894772606</v>
       </c>
     </row>
     <row r="9">
@@ -4668,19 +4668,19 @@
         <v>11244</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6193</v>
+        <v>6616</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18130</v>
+        <v>18276</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09349291736446823</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05149896155327472</v>
+        <v>0.05501770838718768</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1507552073694909</v>
+        <v>0.151965723571474</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -4689,19 +4689,19 @@
         <v>7269</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2555</v>
+        <v>3395</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13365</v>
+        <v>13869</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1573057008027193</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05528726277357811</v>
+        <v>0.07347963931661883</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2892307983081436</v>
+        <v>0.3001400170785481</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>19</v>
@@ -4710,19 +4710,19 @@
         <v>18512</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11472</v>
+        <v>11629</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27565</v>
+        <v>27325</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.111206122644822</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06891529017719107</v>
+        <v>0.06985853463136869</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1655862089290033</v>
+        <v>0.1641432151236666</v>
       </c>
     </row>
     <row r="11">
@@ -4739,19 +4739,19 @@
         <v>109017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>102131</v>
+        <v>101985</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>114068</v>
+        <v>113645</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9065070826355318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.849244792630509</v>
+        <v>0.8480342764285258</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9485010384467252</v>
+        <v>0.9449822916128122</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -4760,19 +4760,19 @@
         <v>38940</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32844</v>
+        <v>32340</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>43654</v>
+        <v>42814</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8426942991972807</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7107692016918563</v>
+        <v>0.6998599829214521</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9447127372264219</v>
+        <v>0.9265203606833812</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>146</v>
@@ -4781,19 +4781,19 @@
         <v>147958</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>138905</v>
+        <v>139145</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>154998</v>
+        <v>154841</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.888793877355178</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8344137910709968</v>
+        <v>0.8358567848763333</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9310847098228089</v>
+        <v>0.9301414653686313</v>
       </c>
     </row>
     <row r="12">
@@ -4885,19 +4885,19 @@
         <v>21004</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14196</v>
+        <v>13659</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29844</v>
+        <v>29919</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1030340543587874</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06963759454447103</v>
+        <v>0.06700472530789651</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1463974325680672</v>
+        <v>0.1467650012008508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>15</v>
@@ -4906,19 +4906,19 @@
         <v>20760</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>12334</v>
+        <v>12859</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31084</v>
+        <v>32140</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2095965637962891</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1245230004656449</v>
+        <v>0.1298333618266883</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3138352594888656</v>
+        <v>0.3244960249966047</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -4927,19 +4927,19 @@
         <v>41764</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30406</v>
+        <v>29427</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55995</v>
+        <v>54347</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.137878981201275</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1003833593368374</v>
+        <v>0.09714873129774022</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.184860901456412</v>
+        <v>0.1794199483747957</v>
       </c>
     </row>
     <row r="14">
@@ -4956,19 +4956,19 @@
         <v>182852</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174012</v>
+        <v>173937</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>189660</v>
+        <v>190197</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8969659456412126</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8536025674319323</v>
+        <v>0.8532349987991489</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9303624054555288</v>
+        <v>0.9329952746921034</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -4977,19 +4977,19 @@
         <v>78286</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67962</v>
+        <v>66906</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86712</v>
+        <v>86187</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7904034362037109</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6861647405111346</v>
+        <v>0.6755039750033954</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8754769995343551</v>
+        <v>0.8701666381733117</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>263</v>
@@ -4998,19 +4998,19 @@
         <v>261138</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>246907</v>
+        <v>248555</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>272496</v>
+        <v>273475</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.862121018798725</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.815139098543588</v>
+        <v>0.8205800516252062</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8996166406631625</v>
+        <v>0.9028512687022601</v>
       </c>
     </row>
     <row r="15">
@@ -5102,19 +5102,19 @@
         <v>27431</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18810</v>
+        <v>19733</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38098</v>
+        <v>38202</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1888905703482171</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1295246755244559</v>
+        <v>0.1358840586498472</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2623439865590263</v>
+        <v>0.2630627287370726</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -5123,19 +5123,19 @@
         <v>36028</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25408</v>
+        <v>24068</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47943</v>
+        <v>47508</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2258076599994039</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1592501860493329</v>
+        <v>0.1508517611825902</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.300487707982807</v>
+        <v>0.2977623522776593</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>59</v>
@@ -5144,19 +5144,19 @@
         <v>63458</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50017</v>
+        <v>48299</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79057</v>
+        <v>78645</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.208216983936168</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1641132582425919</v>
+        <v>0.1584759621128044</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2593994481871743</v>
+        <v>0.2580465758635943</v>
       </c>
     </row>
     <row r="17">
@@ -5173,19 +5173,19 @@
         <v>117790</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>107123</v>
+        <v>107019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>126411</v>
+        <v>125488</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8111094296517829</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.737656013440973</v>
+        <v>0.7369372712629273</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8704753244755439</v>
+        <v>0.8641159413501524</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -5194,19 +5194,19 @@
         <v>123522</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>111607</v>
+        <v>112042</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>134142</v>
+        <v>135482</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7741923400005961</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6995122920171928</v>
+        <v>0.7022376477223405</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8407498139506671</v>
+        <v>0.8491482388174096</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>239</v>
@@ -5215,19 +5215,19 @@
         <v>241313</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>225714</v>
+        <v>226126</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>254754</v>
+        <v>256472</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7917830160638319</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7406005518128254</v>
+        <v>0.7419534241364055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8358867417574081</v>
+        <v>0.8415240378871957</v>
       </c>
     </row>
     <row r="18">
@@ -5328,19 +5328,19 @@
         <v>97361</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>78291</v>
+        <v>78506</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>116535</v>
+        <v>117709</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2356941201645031</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1895282761943237</v>
+        <v>0.1900489351578991</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2821108061203408</v>
+        <v>0.2849528481210481</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>77</v>
@@ -5349,19 +5349,19 @@
         <v>97361</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>78291</v>
+        <v>78506</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116535</v>
+        <v>117709</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2356941201645031</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1895282761943237</v>
+        <v>0.1900489351578991</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2821108061203408</v>
+        <v>0.2849528481210481</v>
       </c>
     </row>
     <row r="20">
@@ -5387,19 +5387,19 @@
         <v>315722</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>296548</v>
+        <v>295374</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>334792</v>
+        <v>334577</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7643058798354969</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7178891938796591</v>
+        <v>0.7150471518789518</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8104717238056762</v>
+        <v>0.8099510648421009</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>270</v>
@@ -5408,19 +5408,19 @@
         <v>315722</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>296548</v>
+        <v>295374</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>334792</v>
+        <v>334577</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7643058798354969</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7178891938796591</v>
+        <v>0.7150471518789518</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8104717238056762</v>
+        <v>0.8099510648421009</v>
       </c>
     </row>
     <row r="21">
@@ -5500,19 +5500,19 @@
         <v>70098</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55548</v>
+        <v>56185</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84939</v>
+        <v>86038</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1185435682155047</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09393714285838607</v>
+        <v>0.0950147842748811</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1436416754500486</v>
+        <v>0.1455002202359778</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>133</v>
@@ -5521,19 +5521,19 @@
         <v>168749</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>142818</v>
+        <v>142024</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>197957</v>
+        <v>195290</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2184839788934466</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1849097489754215</v>
+        <v>0.1838822347246032</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2563003246353316</v>
+        <v>0.2528472180335997</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>210</v>
@@ -5542,19 +5542,19 @@
         <v>238847</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>213720</v>
+        <v>211340</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>271358</v>
+        <v>269386</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1751475330691413</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1567217231164053</v>
+        <v>0.1549760047276939</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1989875382124419</v>
+        <v>0.1975418353773651</v>
       </c>
     </row>
     <row r="23">
@@ -5571,19 +5571,19 @@
         <v>521230</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>506389</v>
+        <v>505290</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>535780</v>
+        <v>535143</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8814564317844953</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8563583245499513</v>
+        <v>0.8544997797640222</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9060628571416139</v>
+        <v>0.9049852157251188</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>517</v>
@@ -5592,19 +5592,19 @@
         <v>603615</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>574407</v>
+        <v>577074</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>629546</v>
+        <v>630340</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7815160211065534</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7436996753646684</v>
+        <v>0.7471527819664004</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8150902510245785</v>
+        <v>0.8161177652753968</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1067</v>
@@ -5613,19 +5613,19 @@
         <v>1124845</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1092334</v>
+        <v>1094306</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1149972</v>
+        <v>1152352</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8248524669308587</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.801012461787558</v>
+        <v>0.8024581646226349</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8432782768835949</v>
+        <v>0.8450239952723061</v>
       </c>
     </row>
     <row r="24">
@@ -5959,19 +5959,19 @@
         <v>6108</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2945</v>
+        <v>3061</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10234</v>
+        <v>10467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05073262495938283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02446212722449296</v>
+        <v>0.02542366427257226</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08499728003999479</v>
+        <v>0.08693855997933853</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -5980,19 +5980,19 @@
         <v>5409</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2582</v>
+        <v>2769</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9298</v>
+        <v>9703</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07254776701308296</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03462476913782614</v>
+        <v>0.037137865105811</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1247000415524196</v>
+        <v>0.1301381975262067</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -6001,19 +6001,19 @@
         <v>11517</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6981</v>
+        <v>7481</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17345</v>
+        <v>17778</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05907543749056167</v>
+        <v>0.05907543749056169</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03580530682164281</v>
+        <v>0.0383694588753804</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08896949542038161</v>
+        <v>0.09118540590594089</v>
       </c>
     </row>
     <row r="5">
@@ -6030,19 +6030,19 @@
         <v>114293</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>110167</v>
+        <v>109934</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>117456</v>
+        <v>117340</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9492673750406172</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9150027199600053</v>
+        <v>0.9130614400206611</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.975537872775507</v>
+        <v>0.9745763357274276</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>123</v>
@@ -6051,19 +6051,19 @@
         <v>69150</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>65261</v>
+        <v>64856</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71977</v>
+        <v>71790</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9274522329869173</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8752999584475807</v>
+        <v>0.8698618024737934</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9653752308621738</v>
+        <v>0.9628621348941893</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>283</v>
@@ -6072,19 +6072,19 @@
         <v>183443</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>177615</v>
+        <v>177182</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>187979</v>
+        <v>187479</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9409245625094383</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9110305045796185</v>
+        <v>0.9088145940940593</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9641946931783573</v>
+        <v>0.9616305411246197</v>
       </c>
     </row>
     <row r="6">
@@ -6176,19 +6176,19 @@
         <v>7188</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3631</v>
+        <v>3814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13991</v>
+        <v>13497</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06864433294489851</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03467179074127138</v>
+        <v>0.03642396139205196</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1336111889571548</v>
+        <v>0.1288920751581042</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -6197,19 +6197,19 @@
         <v>6771</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3654</v>
+        <v>3837</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11165</v>
+        <v>10869</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1230129413639621</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06638848478274989</v>
+        <v>0.06971690177578413</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2028555064977842</v>
+        <v>0.1974742776418529</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -6218,19 +6218,19 @@
         <v>13959</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8718</v>
+        <v>8897</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>20274</v>
+        <v>21488</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08737573648526684</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05456920137173916</v>
+        <v>0.05569318233590054</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1269073290416156</v>
+        <v>0.1345047121849061</v>
       </c>
     </row>
     <row r="8">
@@ -6247,19 +6247,19 @@
         <v>97527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>90724</v>
+        <v>91218</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101084</v>
+        <v>100901</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9313556670551014</v>
+        <v>0.9313556670551016</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8663888110428449</v>
+        <v>0.8711079248418956</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9653282092587285</v>
+        <v>0.9635760386079479</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>85</v>
@@ -6268,19 +6268,19 @@
         <v>48269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>43875</v>
+        <v>44171</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>51386</v>
+        <v>51203</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8769870586360378</v>
+        <v>0.8769870586360379</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7971444935022162</v>
+        <v>0.8025257223581471</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9336115152172501</v>
+        <v>0.930283098224216</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>222</v>
@@ -6289,19 +6289,19 @@
         <v>145796</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>139481</v>
+        <v>138267</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>151037</v>
+        <v>150858</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.912624263514733</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8730926709583858</v>
+        <v>0.8654952878150937</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9454307986282614</v>
+        <v>0.9443068176640992</v>
       </c>
     </row>
     <row r="9">
@@ -6393,19 +6393,19 @@
         <v>14259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8928</v>
+        <v>9190</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20714</v>
+        <v>21452</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1267754926560853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07938003923566168</v>
+        <v>0.0817093515541661</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.18417150116505</v>
+        <v>0.1907309238110668</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -6414,19 +6414,19 @@
         <v>12033</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7798</v>
+        <v>7906</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17999</v>
+        <v>16984</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2075808500746827</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1345138504263403</v>
+        <v>0.1363825386534413</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3104875772983759</v>
+        <v>0.2929866807941292</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -6435,19 +6435,19 @@
         <v>26292</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19002</v>
+        <v>19638</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>34349</v>
+        <v>34588</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1542589246477429</v>
+        <v>0.1542589246477428</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1114847911875552</v>
+        <v>0.1152204285591956</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2015314834333665</v>
+        <v>0.2029348531368772</v>
       </c>
     </row>
     <row r="11">
@@ -6464,19 +6464,19 @@
         <v>98212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91757</v>
+        <v>91019</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103543</v>
+        <v>103281</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8732245073439145</v>
+        <v>0.8732245073439147</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8158284988349499</v>
+        <v>0.8092690761889325</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9206199607643384</v>
+        <v>0.9182906484458337</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>85</v>
@@ -6485,19 +6485,19 @@
         <v>45937</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>39971</v>
+        <v>40986</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>50172</v>
+        <v>50064</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7924191499253175</v>
+        <v>0.7924191499253174</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6895124227016249</v>
+        <v>0.7070133192058706</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8654861495736599</v>
+        <v>0.8636174613465583</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>227</v>
@@ -6506,19 +6506,19 @@
         <v>144149</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>136092</v>
+        <v>135853</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>151439</v>
+        <v>150803</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8457410753522574</v>
+        <v>0.8457410753522571</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7984685165666335</v>
+        <v>0.7970651468631228</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8885152088124447</v>
+        <v>0.8847795714408044</v>
       </c>
     </row>
     <row r="12">
@@ -6610,19 +6610,19 @@
         <v>45299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35885</v>
+        <v>35810</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56022</v>
+        <v>56702</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1756798907730813</v>
+        <v>0.1756798907730812</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1391718921358884</v>
+        <v>0.1388816579631136</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2172683563951797</v>
+        <v>0.2199038510943405</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -6631,19 +6631,19 @@
         <v>22335</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16438</v>
+        <v>16706</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28611</v>
+        <v>28706</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.17145989915582</v>
+        <v>0.1714598991558199</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1261862812079193</v>
+        <v>0.1282443836486433</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.219640141993518</v>
+        <v>0.2203624417915451</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>111</v>
@@ -6652,19 +6652,19 @@
         <v>67634</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>55985</v>
+        <v>56043</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>80255</v>
+        <v>81009</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1742635042368884</v>
+        <v>0.1742635042368885</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1442483803977316</v>
+        <v>0.1443992795968489</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2067842120002747</v>
+        <v>0.2087252348333996</v>
       </c>
     </row>
     <row r="14">
@@ -6681,19 +6681,19 @@
         <v>212548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>201825</v>
+        <v>201145</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>221962</v>
+        <v>222037</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8243201092269188</v>
+        <v>0.8243201092269185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7827316436048202</v>
+        <v>0.7800961489056595</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8608281078641116</v>
+        <v>0.8611183420368864</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>213</v>
@@ -6702,19 +6702,19 @@
         <v>107930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>101654</v>
+        <v>101559</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>113827</v>
+        <v>113559</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8285401008441801</v>
+        <v>0.8285401008441799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7803598580064822</v>
+        <v>0.7796375582084552</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8738137187920807</v>
+        <v>0.8717556163513568</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>515</v>
@@ -6723,19 +6723,19 @@
         <v>320478</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>307857</v>
+        <v>307103</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>332127</v>
+        <v>332069</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8257364957631116</v>
+        <v>0.8257364957631117</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7932157879997251</v>
+        <v>0.7912747651666003</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8557516196022682</v>
+        <v>0.8556007204031515</v>
       </c>
     </row>
     <row r="15">
@@ -6827,19 +6827,19 @@
         <v>13376</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8762</v>
+        <v>8830</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18980</v>
+        <v>18648</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1327049932305679</v>
+        <v>0.132704993230568</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08693343860797409</v>
+        <v>0.08760819411684476</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1883048713861414</v>
+        <v>0.1850108666710857</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>130</v>
@@ -6848,19 +6848,19 @@
         <v>63168</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>54166</v>
+        <v>53731</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72771</v>
+        <v>72827</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2895701556081266</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2483053148793813</v>
+        <v>0.246310590907199</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3335950092895187</v>
+        <v>0.3338483393346734</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>155</v>
@@ -6869,19 +6869,19 @@
         <v>76544</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>65374</v>
+        <v>65513</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87222</v>
+        <v>87679</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.2399961684290444</v>
+        <v>0.2399961684290443</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2049751729565635</v>
+        <v>0.2054098030481738</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2734769509901764</v>
+        <v>0.2749110502857747</v>
       </c>
     </row>
     <row r="17">
@@ -6898,19 +6898,19 @@
         <v>87417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81813</v>
+        <v>82145</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>92031</v>
+        <v>91963</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8672950067694321</v>
+        <v>0.8672950067694322</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8116951286138585</v>
+        <v>0.8149891333289145</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9130665613920259</v>
+        <v>0.9123918058831553</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>309</v>
@@ -6919,19 +6919,19 @@
         <v>154975</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>145372</v>
+        <v>145316</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>163977</v>
+        <v>164412</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7104298443918733</v>
+        <v>0.7104298443918734</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6664049907104813</v>
+        <v>0.6661516606653265</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7516946851206192</v>
+        <v>0.753689409092801</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>432</v>
@@ -6940,19 +6940,19 @@
         <v>242393</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>231715</v>
+        <v>231258</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>253563</v>
+        <v>253424</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7600038315709555</v>
+        <v>0.7600038315709556</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7265230490098232</v>
+        <v>0.7250889497142254</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7950248270434366</v>
+        <v>0.7945901969518262</v>
       </c>
     </row>
     <row r="18">
@@ -7047,7 +7047,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2364</v>
+        <v>2348</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3603506700100866</v>
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7216154690530149</v>
+        <v>0.7167320982215601</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>162</v>
@@ -7065,19 +7065,19 @@
         <v>92189</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>80508</v>
+        <v>79093</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>107010</v>
+        <v>105338</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2685193410270011</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2344950446344948</v>
+        <v>0.2303750445013221</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3116891002679133</v>
+        <v>0.3068192174177923</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>164</v>
@@ -7086,19 +7086,19 @@
         <v>93370</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>81094</v>
+        <v>81157</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>106013</v>
+        <v>106317</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2693873559212557</v>
+        <v>0.2693873559212558</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2339689062276215</v>
+        <v>0.2341511170509448</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3058650245206748</v>
+        <v>0.306743141660981</v>
       </c>
     </row>
     <row r="20">
@@ -7115,7 +7115,7 @@
         <v>2095</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>911</v>
+        <v>924</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>3276</v>
@@ -7124,7 +7124,7 @@
         <v>0.6396493299899134</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2782277496168285</v>
+        <v>0.2820512522067876</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -7136,19 +7136,19 @@
         <v>251135</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>236314</v>
+        <v>237986</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>262816</v>
+        <v>264231</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.731480658972999</v>
+        <v>0.7314806589729991</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.688310899732086</v>
+        <v>0.6931807825822075</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7655049553655044</v>
+        <v>0.7696249554986777</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>474</v>
@@ -7157,19 +7157,19 @@
         <v>253230</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>240587</v>
+        <v>240283</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>265506</v>
+        <v>265443</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7306126440787442</v>
+        <v>0.7306126440787443</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6941349754793252</v>
+        <v>0.693256858339019</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7660310937723788</v>
+        <v>0.7658488829490553</v>
       </c>
     </row>
     <row r="21">
@@ -7261,19 +7261,19 @@
         <v>87410</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>73727</v>
+        <v>74261</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>102660</v>
+        <v>104137</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1249597395633634</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1053995729079032</v>
+        <v>0.106162767574929</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1467607672736566</v>
+        <v>0.148871944097677</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>379</v>
@@ -7282,19 +7282,19 @@
         <v>201905</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>183468</v>
+        <v>184097</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>220553</v>
+        <v>221299</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2296202246952278</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2086519346574205</v>
+        <v>0.2093678665428593</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.250827591887279</v>
+        <v>0.2516764813932125</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>515</v>
@@ -7303,19 +7303,19 @@
         <v>289315</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>268228</v>
+        <v>266883</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>316338</v>
+        <v>315088</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1832494465211938</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1698927762857274</v>
+        <v>0.1690413378722438</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2003655702591841</v>
+        <v>0.1995734694432229</v>
       </c>
     </row>
     <row r="23">
@@ -7332,19 +7332,19 @@
         <v>612094</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>596844</v>
+        <v>595367</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>625777</v>
+        <v>625243</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8750402604366365</v>
+        <v>0.8750402604366366</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8532392327263433</v>
+        <v>0.8511280559023231</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8946004270920969</v>
+        <v>0.893837232425071</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1285</v>
@@ -7353,19 +7353,19 @@
         <v>677396</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>658748</v>
+        <v>658002</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>695833</v>
+        <v>695204</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7703797753047722</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7491724081127209</v>
+        <v>0.7483235186067877</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7913480653425794</v>
+        <v>0.7906321334571405</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2153</v>
@@ -7374,19 +7374,19 @@
         <v>1289490</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1262467</v>
+        <v>1263717</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1310577</v>
+        <v>1311922</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8167505534788063</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7996344297408157</v>
+        <v>0.8004265305567771</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8301072237142727</v>
+        <v>0.8309586621277562</v>
       </c>
     </row>
     <row r="24">
